--- a/Reports/heart/heart_tabfairgan_100_02.xlsx
+++ b/Reports/heart/heart_tabfairgan_100_02.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0612</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0614</v>
+        <v>0.1006</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.1182</v>
+        <v>1.2314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8056</v>
+        <v>0.9494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2241</v>
+        <v>-0.1653</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6905</v>
+        <v>0.7717000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0251</v>
+        <v>0.0474</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0368</v>
+        <v>1.0759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1458</v>
+        <v>-0.0322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7065</v>
+        <v>0.6196</v>
       </c>
     </row>
     <row r="13">
